--- a/natmiOut/OldD2/LR-pairs_lrc2p/Clec11a-Itga11.xlsx
+++ b/natmiOut/OldD2/LR-pairs_lrc2p/Clec11a-Itga11.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="32" uniqueCount="25">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="92" uniqueCount="28">
   <si>
     <t>Sending cluster</t>
   </si>
@@ -79,6 +79,12 @@
     <t>FAPs</t>
   </si>
   <si>
+    <t>Neutro</t>
+  </si>
+  <si>
+    <t>sCs</t>
+  </si>
+  <si>
     <t>Clec11a</t>
   </si>
   <si>
@@ -88,7 +94,10 @@
     <t>ECs</t>
   </si>
   <si>
-    <t>sCs</t>
+    <t>M1</t>
+  </si>
+  <si>
+    <t>M2</t>
   </si>
 </sst>
 </file>
@@ -446,7 +455,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:T4"/>
+  <dimension ref="A1:T19"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -519,61 +528,61 @@
         <v>20</v>
       </c>
       <c r="B2" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="C2" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="D2" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="E2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F2">
         <v>1</v>
       </c>
       <c r="G2">
-        <v>5.11864077655984</v>
+        <v>5.364099333333333</v>
       </c>
       <c r="H2">
-        <v>5.11864077655984</v>
+        <v>16.092298</v>
       </c>
       <c r="I2">
-        <v>1</v>
+        <v>0.979386671976144</v>
       </c>
       <c r="J2">
-        <v>1</v>
+        <v>0.9832028896782715</v>
       </c>
       <c r="K2">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L2">
         <v>1</v>
       </c>
       <c r="M2">
-        <v>0.207732624226432</v>
+        <v>0.219563</v>
       </c>
       <c r="N2">
-        <v>0.207732624226432</v>
+        <v>0.439126</v>
       </c>
       <c r="O2">
-        <v>0.03289330643136848</v>
+        <v>0.0321965312607291</v>
       </c>
       <c r="P2">
-        <v>0.03289330643136848</v>
+        <v>0.02201068841106374</v>
       </c>
       <c r="Q2">
-        <v>1.063308680987197</v>
+        <v>1.177757741924667</v>
       </c>
       <c r="R2">
-        <v>1.063308680987197</v>
+        <v>7.066546451548</v>
       </c>
       <c r="S2">
-        <v>0.03289330643136848</v>
+        <v>0.03153285360062136</v>
       </c>
       <c r="T2">
-        <v>0.03289330643136848</v>
+        <v>0.02164097244956591</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -581,61 +590,61 @@
         <v>20</v>
       </c>
       <c r="B3" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="C3" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="D3" t="s">
         <v>20</v>
       </c>
       <c r="E3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F3">
         <v>1</v>
       </c>
       <c r="G3">
-        <v>5.11864077655984</v>
+        <v>5.364099333333333</v>
       </c>
       <c r="H3">
-        <v>5.11864077655984</v>
+        <v>16.092298</v>
       </c>
       <c r="I3">
-        <v>1</v>
+        <v>0.979386671976144</v>
       </c>
       <c r="J3">
-        <v>1</v>
+        <v>0.9832028896782715</v>
       </c>
       <c r="K3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L3">
         <v>1</v>
       </c>
       <c r="M3">
-        <v>5.81939994789962</v>
+        <v>6.129647333333334</v>
       </c>
       <c r="N3">
-        <v>5.81939994789962</v>
+        <v>18.388942</v>
       </c>
       <c r="O3">
-        <v>0.9214696364895567</v>
+        <v>0.8988462627351212</v>
       </c>
       <c r="P3">
-        <v>0.9214696364895567</v>
+        <v>0.9217246816884522</v>
       </c>
       <c r="Q3">
-        <v>29.7874178684292</v>
+        <v>32.88003717430178</v>
       </c>
       <c r="R3">
-        <v>29.7874178684292</v>
+        <v>295.920334568716</v>
       </c>
       <c r="S3">
-        <v>0.9214696364895567</v>
+        <v>0.8803180498783452</v>
       </c>
       <c r="T3">
-        <v>0.9214696364895567</v>
+        <v>0.9062423705238712</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -643,61 +652,991 @@
         <v>20</v>
       </c>
       <c r="B4" t="s">
+        <v>23</v>
+      </c>
+      <c r="C4" t="s">
+        <v>24</v>
+      </c>
+      <c r="D4" t="s">
+        <v>26</v>
+      </c>
+      <c r="E4">
+        <v>3</v>
+      </c>
+      <c r="F4">
+        <v>1</v>
+      </c>
+      <c r="G4">
+        <v>5.364099333333333</v>
+      </c>
+      <c r="H4">
+        <v>16.092298</v>
+      </c>
+      <c r="I4">
+        <v>0.979386671976144</v>
+      </c>
+      <c r="J4">
+        <v>0.9832028896782715</v>
+      </c>
+      <c r="K4">
+        <v>2</v>
+      </c>
+      <c r="L4">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="M4">
+        <v>0.07688066666666667</v>
+      </c>
+      <c r="N4">
+        <v>0.230642</v>
+      </c>
+      <c r="O4">
+        <v>0.01127371546061507</v>
+      </c>
+      <c r="P4">
+        <v>0.01156066640669094</v>
+      </c>
+      <c r="Q4">
+        <v>0.4123955328128889</v>
+      </c>
+      <c r="R4">
+        <v>3.711559795316</v>
+      </c>
+      <c r="S4">
+        <v>0.0110413266657778</v>
+      </c>
+      <c r="T4">
+        <v>0.01136648061766505</v>
+      </c>
+    </row>
+    <row r="5" spans="1:20">
+      <c r="A5" t="s">
+        <v>20</v>
+      </c>
+      <c r="B5" t="s">
+        <v>23</v>
+      </c>
+      <c r="C5" t="s">
+        <v>24</v>
+      </c>
+      <c r="D5" t="s">
+        <v>27</v>
+      </c>
+      <c r="E5">
+        <v>3</v>
+      </c>
+      <c r="F5">
+        <v>1</v>
+      </c>
+      <c r="G5">
+        <v>5.364099333333333</v>
+      </c>
+      <c r="H5">
+        <v>16.092298</v>
+      </c>
+      <c r="I5">
+        <v>0.979386671976144</v>
+      </c>
+      <c r="J5">
+        <v>0.9832028896782715</v>
+      </c>
+      <c r="K5">
+        <v>2</v>
+      </c>
+      <c r="L5">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="M5">
+        <v>0.07063533333333333</v>
+      </c>
+      <c r="N5">
+        <v>0.211906</v>
+      </c>
+      <c r="O5">
+        <v>0.01035790510139999</v>
+      </c>
+      <c r="P5">
+        <v>0.01062154583977007</v>
+      </c>
+      <c r="Q5">
+        <v>0.3788949444431111</v>
+      </c>
+      <c r="R5">
+        <v>3.410054499988</v>
+      </c>
+      <c r="S5">
+        <v>0.01014439420590486</v>
+      </c>
+      <c r="T5">
+        <v>0.01044313456251216</v>
+      </c>
+    </row>
+    <row r="6" spans="1:20">
+      <c r="A6" t="s">
+        <v>20</v>
+      </c>
+      <c r="B6" t="s">
+        <v>23</v>
+      </c>
+      <c r="C6" t="s">
+        <v>24</v>
+      </c>
+      <c r="D6" t="s">
         <v>21</v>
       </c>
-      <c r="C4" t="s">
+      <c r="E6">
+        <v>3</v>
+      </c>
+      <c r="F6">
+        <v>1</v>
+      </c>
+      <c r="G6">
+        <v>5.364099333333333</v>
+      </c>
+      <c r="H6">
+        <v>16.092298</v>
+      </c>
+      <c r="I6">
+        <v>0.979386671976144</v>
+      </c>
+      <c r="J6">
+        <v>0.9832028896782715</v>
+      </c>
+      <c r="K6">
+        <v>1</v>
+      </c>
+      <c r="L6">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="M6">
+        <v>0.034494</v>
+      </c>
+      <c r="N6">
+        <v>0.103482</v>
+      </c>
+      <c r="O6">
+        <v>0.005058170772432466</v>
+      </c>
+      <c r="P6">
+        <v>0.005186916871589699</v>
+      </c>
+      <c r="Q6">
+        <v>0.185029242404</v>
+      </c>
+      <c r="R6">
+        <v>1.665263181636</v>
+      </c>
+      <c r="S6">
+        <v>0.004953905039099635</v>
+      </c>
+      <c r="T6">
+        <v>0.005099791656667972</v>
+      </c>
+    </row>
+    <row r="7" spans="1:20">
+      <c r="A7" t="s">
+        <v>20</v>
+      </c>
+      <c r="B7" t="s">
+        <v>23</v>
+      </c>
+      <c r="C7" t="s">
+        <v>24</v>
+      </c>
+      <c r="D7" t="s">
         <v>22</v>
       </c>
-      <c r="D4" t="s">
-        <v>24</v>
-      </c>
-      <c r="E4">
-        <v>1</v>
-      </c>
-      <c r="F4">
-        <v>1</v>
-      </c>
-      <c r="G4">
-        <v>5.11864077655984</v>
-      </c>
-      <c r="H4">
-        <v>5.11864077655984</v>
-      </c>
-      <c r="I4">
-        <v>1</v>
-      </c>
-      <c r="J4">
-        <v>1</v>
-      </c>
-      <c r="K4">
-        <v>1</v>
-      </c>
-      <c r="L4">
-        <v>1</v>
-      </c>
-      <c r="M4">
-        <v>0.28821382395194</v>
-      </c>
-      <c r="N4">
-        <v>0.28821382395194</v>
-      </c>
-      <c r="O4">
-        <v>0.04563705707907469</v>
-      </c>
-      <c r="P4">
-        <v>0.04563705707907469</v>
-      </c>
-      <c r="Q4">
-        <v>1.475263031648639</v>
-      </c>
-      <c r="R4">
-        <v>1.475263031648639</v>
-      </c>
-      <c r="S4">
-        <v>0.04563705707907469</v>
-      </c>
-      <c r="T4">
-        <v>0.04563705707907469</v>
+      <c r="E7">
+        <v>3</v>
+      </c>
+      <c r="F7">
+        <v>1</v>
+      </c>
+      <c r="G7">
+        <v>5.364099333333333</v>
+      </c>
+      <c r="H7">
+        <v>16.092298</v>
+      </c>
+      <c r="I7">
+        <v>0.979386671976144</v>
+      </c>
+      <c r="J7">
+        <v>0.9832028896782715</v>
+      </c>
+      <c r="K7">
+        <v>2</v>
+      </c>
+      <c r="L7">
+        <v>1</v>
+      </c>
+      <c r="M7">
+        <v>0.288241</v>
+      </c>
+      <c r="N7">
+        <v>0.5764819999999999</v>
+      </c>
+      <c r="O7">
+        <v>0.04226741466970216</v>
+      </c>
+      <c r="P7">
+        <v>0.02889550078243339</v>
+      </c>
+      <c r="Q7">
+        <v>1.546153355939333</v>
+      </c>
+      <c r="R7">
+        <v>9.276920135635999</v>
+      </c>
+      <c r="S7">
+        <v>0.04139614258639525</v>
+      </c>
+      <c r="T7">
+        <v>0.02841013986798927</v>
+      </c>
+    </row>
+    <row r="8" spans="1:20">
+      <c r="A8" t="s">
+        <v>21</v>
+      </c>
+      <c r="B8" t="s">
+        <v>23</v>
+      </c>
+      <c r="C8" t="s">
+        <v>24</v>
+      </c>
+      <c r="D8" t="s">
+        <v>25</v>
+      </c>
+      <c r="E8">
+        <v>1</v>
+      </c>
+      <c r="F8">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="G8">
+        <v>0.04912366666666667</v>
+      </c>
+      <c r="H8">
+        <v>0.147371</v>
+      </c>
+      <c r="I8">
+        <v>0.008969085287619975</v>
+      </c>
+      <c r="J8">
+        <v>0.009004033672181349</v>
+      </c>
+      <c r="K8">
+        <v>2</v>
+      </c>
+      <c r="L8">
+        <v>1</v>
+      </c>
+      <c r="M8">
+        <v>0.219563</v>
+      </c>
+      <c r="N8">
+        <v>0.439126</v>
+      </c>
+      <c r="O8">
+        <v>0.0321965312607291</v>
+      </c>
+      <c r="P8">
+        <v>0.02201068841106374</v>
+      </c>
+      <c r="Q8">
+        <v>0.01078573962433333</v>
+      </c>
+      <c r="R8">
+        <v>0.064714437746</v>
+      </c>
+      <c r="S8">
+        <v>0.000288773434843002</v>
+      </c>
+      <c r="T8">
+        <v>0.0001981849796011097</v>
+      </c>
+    </row>
+    <row r="9" spans="1:20">
+      <c r="A9" t="s">
+        <v>21</v>
+      </c>
+      <c r="B9" t="s">
+        <v>23</v>
+      </c>
+      <c r="C9" t="s">
+        <v>24</v>
+      </c>
+      <c r="D9" t="s">
+        <v>20</v>
+      </c>
+      <c r="E9">
+        <v>1</v>
+      </c>
+      <c r="F9">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="G9">
+        <v>0.04912366666666667</v>
+      </c>
+      <c r="H9">
+        <v>0.147371</v>
+      </c>
+      <c r="I9">
+        <v>0.008969085287619975</v>
+      </c>
+      <c r="J9">
+        <v>0.009004033672181349</v>
+      </c>
+      <c r="K9">
+        <v>3</v>
+      </c>
+      <c r="L9">
+        <v>1</v>
+      </c>
+      <c r="M9">
+        <v>6.129647333333334</v>
+      </c>
+      <c r="N9">
+        <v>18.388942</v>
+      </c>
+      <c r="O9">
+        <v>0.8988462627351212</v>
+      </c>
+      <c r="P9">
+        <v>0.9217246816884522</v>
+      </c>
+      <c r="Q9">
+        <v>0.3011107523868889</v>
+      </c>
+      <c r="R9">
+        <v>2.709996771482</v>
+      </c>
+      <c r="S9">
+        <v>0.008061828790929775</v>
+      </c>
+      <c r="T9">
+        <v>0.008299240070403458</v>
+      </c>
+    </row>
+    <row r="10" spans="1:20">
+      <c r="A10" t="s">
+        <v>21</v>
+      </c>
+      <c r="B10" t="s">
+        <v>23</v>
+      </c>
+      <c r="C10" t="s">
+        <v>24</v>
+      </c>
+      <c r="D10" t="s">
+        <v>26</v>
+      </c>
+      <c r="E10">
+        <v>1</v>
+      </c>
+      <c r="F10">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="G10">
+        <v>0.04912366666666667</v>
+      </c>
+      <c r="H10">
+        <v>0.147371</v>
+      </c>
+      <c r="I10">
+        <v>0.008969085287619975</v>
+      </c>
+      <c r="J10">
+        <v>0.009004033672181349</v>
+      </c>
+      <c r="K10">
+        <v>2</v>
+      </c>
+      <c r="L10">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="M10">
+        <v>0.07688066666666667</v>
+      </c>
+      <c r="N10">
+        <v>0.230642</v>
+      </c>
+      <c r="O10">
+        <v>0.01127371546061507</v>
+      </c>
+      <c r="P10">
+        <v>0.01156066640669094</v>
+      </c>
+      <c r="Q10">
+        <v>0.003776660242444445</v>
+      </c>
+      <c r="R10">
+        <v>0.033989942182</v>
+      </c>
+      <c r="S10">
+        <v>0.0001011149154746165</v>
+      </c>
+      <c r="T10">
+        <v>0.0001040926295987009</v>
+      </c>
+    </row>
+    <row r="11" spans="1:20">
+      <c r="A11" t="s">
+        <v>21</v>
+      </c>
+      <c r="B11" t="s">
+        <v>23</v>
+      </c>
+      <c r="C11" t="s">
+        <v>24</v>
+      </c>
+      <c r="D11" t="s">
+        <v>27</v>
+      </c>
+      <c r="E11">
+        <v>1</v>
+      </c>
+      <c r="F11">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="G11">
+        <v>0.04912366666666667</v>
+      </c>
+      <c r="H11">
+        <v>0.147371</v>
+      </c>
+      <c r="I11">
+        <v>0.008969085287619975</v>
+      </c>
+      <c r="J11">
+        <v>0.009004033672181349</v>
+      </c>
+      <c r="K11">
+        <v>2</v>
+      </c>
+      <c r="L11">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="M11">
+        <v>0.07063533333333333</v>
+      </c>
+      <c r="N11">
+        <v>0.211906</v>
+      </c>
+      <c r="O11">
+        <v>0.01035790510139999</v>
+      </c>
+      <c r="P11">
+        <v>0.01062154583977007</v>
+      </c>
+      <c r="Q11">
+        <v>0.003469866569555555</v>
+      </c>
+      <c r="R11">
+        <v>0.031228799126</v>
+      </c>
+      <c r="S11">
+        <v>9.290093425553054E-05</v>
+      </c>
+      <c r="T11">
+        <v>9.563675639190745E-05</v>
+      </c>
+    </row>
+    <row r="12" spans="1:20">
+      <c r="A12" t="s">
+        <v>21</v>
+      </c>
+      <c r="B12" t="s">
+        <v>23</v>
+      </c>
+      <c r="C12" t="s">
+        <v>24</v>
+      </c>
+      <c r="D12" t="s">
+        <v>21</v>
+      </c>
+      <c r="E12">
+        <v>1</v>
+      </c>
+      <c r="F12">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="G12">
+        <v>0.04912366666666667</v>
+      </c>
+      <c r="H12">
+        <v>0.147371</v>
+      </c>
+      <c r="I12">
+        <v>0.008969085287619975</v>
+      </c>
+      <c r="J12">
+        <v>0.009004033672181349</v>
+      </c>
+      <c r="K12">
+        <v>1</v>
+      </c>
+      <c r="L12">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="M12">
+        <v>0.034494</v>
+      </c>
+      <c r="N12">
+        <v>0.103482</v>
+      </c>
+      <c r="O12">
+        <v>0.005058170772432466</v>
+      </c>
+      <c r="P12">
+        <v>0.005186916871589699</v>
+      </c>
+      <c r="Q12">
+        <v>0.001694471758</v>
+      </c>
+      <c r="R12">
+        <v>0.015250245822</v>
+      </c>
+      <c r="S12">
+        <v>4.53671650572934E-05</v>
+      </c>
+      <c r="T12">
+        <v>4.670317416659919E-05</v>
+      </c>
+    </row>
+    <row r="13" spans="1:20">
+      <c r="A13" t="s">
+        <v>21</v>
+      </c>
+      <c r="B13" t="s">
+        <v>23</v>
+      </c>
+      <c r="C13" t="s">
+        <v>24</v>
+      </c>
+      <c r="D13" t="s">
+        <v>22</v>
+      </c>
+      <c r="E13">
+        <v>1</v>
+      </c>
+      <c r="F13">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="G13">
+        <v>0.04912366666666667</v>
+      </c>
+      <c r="H13">
+        <v>0.147371</v>
+      </c>
+      <c r="I13">
+        <v>0.008969085287619975</v>
+      </c>
+      <c r="J13">
+        <v>0.009004033672181349</v>
+      </c>
+      <c r="K13">
+        <v>2</v>
+      </c>
+      <c r="L13">
+        <v>1</v>
+      </c>
+      <c r="M13">
+        <v>0.288241</v>
+      </c>
+      <c r="N13">
+        <v>0.5764819999999999</v>
+      </c>
+      <c r="O13">
+        <v>0.04226741466970216</v>
+      </c>
+      <c r="P13">
+        <v>0.02889550078243339</v>
+      </c>
+      <c r="Q13">
+        <v>0.01415945480366667</v>
+      </c>
+      <c r="R13">
+        <v>0.08495672882199999</v>
+      </c>
+      <c r="S13">
+        <v>0.0003791000470597583</v>
+      </c>
+      <c r="T13">
+        <v>0.0002601760620195728</v>
+      </c>
+    </row>
+    <row r="14" spans="1:20">
+      <c r="A14" t="s">
+        <v>22</v>
+      </c>
+      <c r="B14" t="s">
+        <v>23</v>
+      </c>
+      <c r="C14" t="s">
+        <v>24</v>
+      </c>
+      <c r="D14" t="s">
+        <v>25</v>
+      </c>
+      <c r="E14">
+        <v>1</v>
+      </c>
+      <c r="F14">
+        <v>0.5</v>
+      </c>
+      <c r="G14">
+        <v>0.0637755</v>
+      </c>
+      <c r="H14">
+        <v>0.127551</v>
+      </c>
+      <c r="I14">
+        <v>0.01164424273623592</v>
+      </c>
+      <c r="J14">
+        <v>0.007793076649547082</v>
+      </c>
+      <c r="K14">
+        <v>2</v>
+      </c>
+      <c r="L14">
+        <v>1</v>
+      </c>
+      <c r="M14">
+        <v>0.219563</v>
+      </c>
+      <c r="N14">
+        <v>0.439126</v>
+      </c>
+      <c r="O14">
+        <v>0.0321965312607291</v>
+      </c>
+      <c r="P14">
+        <v>0.02201068841106374</v>
+      </c>
+      <c r="Q14">
+        <v>0.0140027401065</v>
+      </c>
+      <c r="R14">
+        <v>0.056010960426</v>
+      </c>
+      <c r="S14">
+        <v>0.0003749042252647374</v>
+      </c>
+      <c r="T14">
+        <v>0.0001715309818967174</v>
+      </c>
+    </row>
+    <row r="15" spans="1:20">
+      <c r="A15" t="s">
+        <v>22</v>
+      </c>
+      <c r="B15" t="s">
+        <v>23</v>
+      </c>
+      <c r="C15" t="s">
+        <v>24</v>
+      </c>
+      <c r="D15" t="s">
+        <v>20</v>
+      </c>
+      <c r="E15">
+        <v>1</v>
+      </c>
+      <c r="F15">
+        <v>0.5</v>
+      </c>
+      <c r="G15">
+        <v>0.0637755</v>
+      </c>
+      <c r="H15">
+        <v>0.127551</v>
+      </c>
+      <c r="I15">
+        <v>0.01164424273623592</v>
+      </c>
+      <c r="J15">
+        <v>0.007793076649547082</v>
+      </c>
+      <c r="K15">
+        <v>3</v>
+      </c>
+      <c r="L15">
+        <v>1</v>
+      </c>
+      <c r="M15">
+        <v>6.129647333333334</v>
+      </c>
+      <c r="N15">
+        <v>18.388942</v>
+      </c>
+      <c r="O15">
+        <v>0.8988462627351212</v>
+      </c>
+      <c r="P15">
+        <v>0.9217246816884522</v>
+      </c>
+      <c r="Q15">
+        <v>0.390921323507</v>
+      </c>
+      <c r="R15">
+        <v>2.345527941042</v>
+      </c>
+      <c r="S15">
+        <v>0.01046638406584624</v>
+      </c>
+      <c r="T15">
+        <v>0.007183071094177494</v>
+      </c>
+    </row>
+    <row r="16" spans="1:20">
+      <c r="A16" t="s">
+        <v>22</v>
+      </c>
+      <c r="B16" t="s">
+        <v>23</v>
+      </c>
+      <c r="C16" t="s">
+        <v>24</v>
+      </c>
+      <c r="D16" t="s">
+        <v>26</v>
+      </c>
+      <c r="E16">
+        <v>1</v>
+      </c>
+      <c r="F16">
+        <v>0.5</v>
+      </c>
+      <c r="G16">
+        <v>0.0637755</v>
+      </c>
+      <c r="H16">
+        <v>0.127551</v>
+      </c>
+      <c r="I16">
+        <v>0.01164424273623592</v>
+      </c>
+      <c r="J16">
+        <v>0.007793076649547082</v>
+      </c>
+      <c r="K16">
+        <v>2</v>
+      </c>
+      <c r="L16">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="M16">
+        <v>0.07688066666666667</v>
+      </c>
+      <c r="N16">
+        <v>0.230642</v>
+      </c>
+      <c r="O16">
+        <v>0.01127371546061507</v>
+      </c>
+      <c r="P16">
+        <v>0.01156066640669094</v>
+      </c>
+      <c r="Q16">
+        <v>0.004903102957</v>
+      </c>
+      <c r="R16">
+        <v>0.029418617742</v>
+      </c>
+      <c r="S16">
+        <v>0.0001312738793626576</v>
+      </c>
+      <c r="T16">
+        <v>9.009315942718651E-05</v>
+      </c>
+    </row>
+    <row r="17" spans="1:20">
+      <c r="A17" t="s">
+        <v>22</v>
+      </c>
+      <c r="B17" t="s">
+        <v>23</v>
+      </c>
+      <c r="C17" t="s">
+        <v>24</v>
+      </c>
+      <c r="D17" t="s">
+        <v>27</v>
+      </c>
+      <c r="E17">
+        <v>1</v>
+      </c>
+      <c r="F17">
+        <v>0.5</v>
+      </c>
+      <c r="G17">
+        <v>0.0637755</v>
+      </c>
+      <c r="H17">
+        <v>0.127551</v>
+      </c>
+      <c r="I17">
+        <v>0.01164424273623592</v>
+      </c>
+      <c r="J17">
+        <v>0.007793076649547082</v>
+      </c>
+      <c r="K17">
+        <v>2</v>
+      </c>
+      <c r="L17">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="M17">
+        <v>0.07063533333333333</v>
+      </c>
+      <c r="N17">
+        <v>0.211906</v>
+      </c>
+      <c r="O17">
+        <v>0.01035790510139999</v>
+      </c>
+      <c r="P17">
+        <v>0.01062154583977007</v>
+      </c>
+      <c r="Q17">
+        <v>0.004504803700999999</v>
+      </c>
+      <c r="R17">
+        <v>0.027028822206</v>
+      </c>
+      <c r="S17">
+        <v>0.0001206099612395978</v>
+      </c>
+      <c r="T17">
+        <v>8.277452086600611E-05</v>
+      </c>
+    </row>
+    <row r="18" spans="1:20">
+      <c r="A18" t="s">
+        <v>22</v>
+      </c>
+      <c r="B18" t="s">
+        <v>23</v>
+      </c>
+      <c r="C18" t="s">
+        <v>24</v>
+      </c>
+      <c r="D18" t="s">
+        <v>21</v>
+      </c>
+      <c r="E18">
+        <v>1</v>
+      </c>
+      <c r="F18">
+        <v>0.5</v>
+      </c>
+      <c r="G18">
+        <v>0.0637755</v>
+      </c>
+      <c r="H18">
+        <v>0.127551</v>
+      </c>
+      <c r="I18">
+        <v>0.01164424273623592</v>
+      </c>
+      <c r="J18">
+        <v>0.007793076649547082</v>
+      </c>
+      <c r="K18">
+        <v>1</v>
+      </c>
+      <c r="L18">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="M18">
+        <v>0.034494</v>
+      </c>
+      <c r="N18">
+        <v>0.103482</v>
+      </c>
+      <c r="O18">
+        <v>0.005058170772432466</v>
+      </c>
+      <c r="P18">
+        <v>0.005186916871589699</v>
+      </c>
+      <c r="Q18">
+        <v>0.002199872097</v>
+      </c>
+      <c r="R18">
+        <v>0.013199232582</v>
+      </c>
+      <c r="S18">
+        <v>5.889856827553755E-05</v>
+      </c>
+      <c r="T18">
+        <v>4.042204075512748E-05</v>
+      </c>
+    </row>
+    <row r="19" spans="1:20">
+      <c r="A19" t="s">
+        <v>22</v>
+      </c>
+      <c r="B19" t="s">
+        <v>23</v>
+      </c>
+      <c r="C19" t="s">
+        <v>24</v>
+      </c>
+      <c r="D19" t="s">
+        <v>22</v>
+      </c>
+      <c r="E19">
+        <v>1</v>
+      </c>
+      <c r="F19">
+        <v>0.5</v>
+      </c>
+      <c r="G19">
+        <v>0.0637755</v>
+      </c>
+      <c r="H19">
+        <v>0.127551</v>
+      </c>
+      <c r="I19">
+        <v>0.01164424273623592</v>
+      </c>
+      <c r="J19">
+        <v>0.007793076649547082</v>
+      </c>
+      <c r="K19">
+        <v>2</v>
+      </c>
+      <c r="L19">
+        <v>1</v>
+      </c>
+      <c r="M19">
+        <v>0.288241</v>
+      </c>
+      <c r="N19">
+        <v>0.5764819999999999</v>
+      </c>
+      <c r="O19">
+        <v>0.04226741466970216</v>
+      </c>
+      <c r="P19">
+        <v>0.02889550078243339</v>
+      </c>
+      <c r="Q19">
+        <v>0.0183827138955</v>
+      </c>
+      <c r="R19">
+        <v>0.073530855582</v>
+      </c>
+      <c r="S19">
+        <v>0.0004921720362471507</v>
+      </c>
+      <c r="T19">
+        <v>0.0002251848524245511</v>
       </c>
     </row>
   </sheetData>
